--- a/docs/FUNPARTLIST.xlsx
+++ b/docs/FUNPARTLIST.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="185" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
   <si>
     <t>Vendor:</t>
   </si>
@@ -71,21 +71,9 @@
     <t>See link</t>
   </si>
   <si>
-    <t>60x8mm Wheels - YELLOW</t>
-  </si>
-  <si>
-    <t>http://www.pololu.com/product/1423</t>
-  </si>
-  <si>
-    <t>60x8mm</t>
-  </si>
-  <si>
     <t>60x8mm Wheels - BLUE</t>
   </si>
   <si>
-    <t>60x8mm Wheels - RED</t>
-  </si>
-  <si>
     <t>60x8mm Wheels - WHITE</t>
   </si>
   <si>
@@ -161,10 +149,10 @@
     <t>http://www.amazon.com/dp/B00137S0V0/ref=biss_dp_t_asn</t>
   </si>
   <si>
-    <t>Plasticard 0.08 inch pack (3)</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/Plasticard-080-Inch-Pack-3/dp/B00MR5SKH6/ref=sr_1_16?s=toys-and-games&amp;ie=UTF8&amp;qid=1410632397&amp;sr=1-16&amp;keywords=plasticard</t>
+    <t>Plasticard 0.1 inch pack (2)</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Plasticard-100-Inch-Pack-2/dp/B00MR5U4VG/ref=sr_1_16?s=toys-and-games&amp;ie=UTF8&amp;qid=1411234238&amp;sr=1-16&amp;keywords=plasticard</t>
   </si>
   <si>
     <t>a</t>
@@ -209,15 +197,6 @@
     <t>0.5 x 0.55 x 1.45"</t>
   </si>
   <si>
-    <t>COM-11310</t>
-  </si>
-  <si>
-    <t>Toggle Switch and Cover – Illuminated</t>
-  </si>
-  <si>
-    <t>https://www.sparkfun.com/products/11310</t>
-  </si>
-  <si>
     <t>COM-10442</t>
   </si>
   <si>
@@ -261,6 +240,12 @@
   </si>
   <si>
     <t>TOTAL PARTS COST:</t>
+  </si>
+  <si>
+    <t>NOTE:</t>
+  </si>
+  <si>
+    <t>WE'VE CALCULATED BASED ON WHAT COMES IN THE PACK, NOT INDIVIDUAL UNITS. SO IF IT'S SOLD AS A PAIR WE CONSIDER THAT ONE UNIT</t>
   </si>
 </sst>
 </file>
@@ -272,7 +257,7 @@
     <numFmt numFmtId="165" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="\$#,##0.00_);[RED]&quot;($&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -314,6 +299,14 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -365,7 +358,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -395,6 +388,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -474,13 +471,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -491,7 +488,7 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.53441295546559"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.4251012145749"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="88"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="111.024291497976"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.5708502024291"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.53441295546559"/>
   </cols>
@@ -560,14 +557,14 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>34.95</v>
       </c>
       <c r="F3" s="3" t="n">
         <f aca="false">D3*E3</f>
-        <v>139.8</v>
+        <v>69.9</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>13</v>
@@ -623,12 +620,6 @@
         <f aca="false">D5*E5</f>
         <v>15.9</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -638,17 +629,17 @@
         <v>1423</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>7.95</v>
       </c>
       <c r="F6" s="3" t="n">
         <f aca="false">D6*E6</f>
-        <v>15.9</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -656,312 +647,295 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>1423</v>
+        <v>1962</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>7.95</v>
+        <v>1</v>
       </c>
       <c r="F7" s="3" t="n">
         <f aca="false">D7*E7</f>
-        <v>15.9</v>
+        <v>2</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>1423</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <f aca="false">D8*E8</f>
-        <v>15.9</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>1962</v>
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1</v>
+        <v>15.9</v>
       </c>
       <c r="F9" s="3" t="n">
         <f aca="false">D9*E9</f>
-        <v>2</v>
+        <v>95.4</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="H9" s="0" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
+      <c r="A10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>29.95</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <f aca="false">D10*E10</f>
+        <v>29.95</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>31</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>15.9</v>
+        <v>12.95</v>
       </c>
       <c r="F11" s="3" t="n">
         <f aca="false">D11*E11</f>
-        <v>95.4</v>
+        <v>12.95</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>31</v>
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>29.95</v>
+        <v>15</v>
       </c>
       <c r="F12" s="3" t="n">
         <f aca="false">D12*E12</f>
-        <v>29.95</v>
+        <v>15</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>12.95</v>
+        <v>2.95</v>
       </c>
       <c r="F13" s="3" t="n">
         <f aca="false">D13*E13</f>
-        <v>12.95</v>
+        <v>5.9</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="F14" s="3" t="n">
-        <f aca="false">D14*E14</f>
-        <v>15</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>34</v>
-      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="D15" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>2.95</v>
+        <v>12.24</v>
       </c>
       <c r="F15" s="3" t="n">
         <f aca="false">D15*E15</f>
-        <v>5.9</v>
+        <v>12.24</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <f aca="false">11.99 + 5.2</f>
+        <v>17.19</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <f aca="false">D16*E16</f>
+        <v>17.19</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>12.24</v>
+        <v>4.52</v>
       </c>
       <c r="F17" s="3" t="n">
         <f aca="false">D17*E17</f>
-        <v>12.24</v>
+        <v>4.52</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E18" s="5" t="n">
-        <f aca="false">11.99 + 5.2</f>
-        <v>17.19</v>
+      <c r="E18" s="2" t="n">
+        <v>6.99</v>
       </c>
       <c r="F18" s="3" t="n">
         <f aca="false">D18*E18</f>
-        <v>17.19</v>
+        <v>6.99</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="0" t="s">
         <v>50</v>
       </c>
+      <c r="H18" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="F19" s="3" t="n">
-        <f aca="false">D19*E19</f>
-        <v>4.52</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>50</v>
-      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>53</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>6.99</v>
+        <v>68</v>
       </c>
       <c r="F20" s="3" t="n">
         <f aca="false">D20*E20</f>
-        <v>6.99</v>
+        <v>136</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -970,201 +944,160 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>56</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>57</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3" t="n">
         <f aca="false">D22*E22</f>
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="H22" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="2"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="0" t="s">
+      <c r="A23" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C23" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F24" s="3" t="n">
-        <f aca="false">D24*E24</f>
+      <c r="D23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <f aca="false">D23*E23</f>
         <v>4</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H23" s="0" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>2.95</v>
+        <v>3.9</v>
       </c>
       <c r="F25" s="3" t="n">
         <f aca="false">D25*E25</f>
-        <v>2.95</v>
+        <v>11.7</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F26" s="3" t="n">
-        <f aca="false">D26*E26</f>
-        <v>4</v>
-      </c>
-      <c r="G26" s="4" t="s">
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="0" t="s">
+      <c r="B27" s="0" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="3"/>
+      <c r="C27" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <f aca="false">D27*E27</f>
+        <v>55</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="F28" s="3" t="n">
-        <f aca="false">D28*E28</f>
-        <v>7.8</v>
-      </c>
-      <c r="G28" s="4" t="s">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="F29" s="3" t="n">
+        <f aca="false">SUM(F2:F28)</f>
+        <v>535.39</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="B31" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="F30" s="3" t="n">
-        <f aca="false">D30*E30</f>
-        <v>55</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" s="3" t="n">
-        <f aca="false">SUM(F2:F31)</f>
-        <v>576.09</v>
-      </c>
-    </row>
+      <c r="C31" s="8"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" display="http://www.pololu.com/product/1081"/>
     <hyperlink ref="G3" r:id="rId2" display="http://www.pololu.com/product/2282"/>
     <hyperlink ref="G4" r:id="rId3" display="http://www.pololu.com/product/1569"/>
-    <hyperlink ref="G5" r:id="rId4" display="http://www.pololu.com/product/1423"/>
-    <hyperlink ref="G9" r:id="rId5" display="http://www.pololu.com/product/1962"/>
-    <hyperlink ref="G11" r:id="rId6" display="http://www.trossenrobotics.com/sharp-ir-distance-sensor4-30cm.aspx"/>
-    <hyperlink ref="G12" r:id="rId7" display="http://www.trossenrobotics.com/robot_webcam"/>
-    <hyperlink ref="G13" r:id="rId8" display="http://www.trossenrobotics.com/store/p/6744-2s-7-4V-1300mAh-25C-LiPo-Battery.aspx"/>
-    <hyperlink ref="G14" r:id="rId9" display="http://www.trossenrobotics.com/store/p/5162-5V-1A-Switching-voltage-regulator.aspx"/>
-    <hyperlink ref="G15" r:id="rId10" display="http://www.trossenrobotics.com/barrel-jack-male-pigtail"/>
-    <hyperlink ref="G17" r:id="rId11" display="http://www.amazon.com/dp/B00137S0V0/ref=biss_dp_t_asn"/>
-    <hyperlink ref="G18" r:id="rId12" display="http://www.amazon.com/Plasticard-080-Inch-Pack-3/dp/B00MR5SKH6/ref=sr_1_16?s=toys-and-games&amp;ie=UTF8&amp;qid=1410632397&amp;sr=1-16&amp;keywords=plasticard"/>
-    <hyperlink ref="G19" r:id="rId13" display="http://www.amazon.com/PCD-Universal-Adapter-Female-Connector/dp/B0041CFFBM/ref=pd_cp_e_3"/>
-    <hyperlink ref="G20" r:id="rId14" display="http://www.amazon.com/Sabrent-4-Port-Individual-Switches-HB-UMLS/dp/B00BWF5U0M/ref=sr_1_1?s=pc&amp;ie=UTF8&amp;qid=undefined&amp;sr=1-1&amp;keywords=usb+hub"/>
-    <hyperlink ref="G22" r:id="rId15" display="https://exadler.myshopify.com/products/dual-motor-controller-cape-dmcc-mk-6"/>
-    <hyperlink ref="G24" r:id="rId16" display="https://www.sparkfun.com/products/9276"/>
-    <hyperlink ref="G26" r:id="rId17" display="https://www.sparkfun.com/products/10441"/>
-    <hyperlink ref="G28" r:id="rId18" display="http://www.seeedstudio.com/depot/Grove-Line-Finder-p-825.html?cPath=25_31"/>
-    <hyperlink ref="G30" r:id="rId19" display="http://www.digikey.com/product-detail/en/BB-BBLK-000/BB-BBLK-000-REVC-ND/4842211"/>
+    <hyperlink ref="G7" r:id="rId4" display="http://www.pololu.com/product/1962"/>
+    <hyperlink ref="G9" r:id="rId5" display="http://www.trossenrobotics.com/sharp-ir-distance-sensor4-30cm.aspx"/>
+    <hyperlink ref="G10" r:id="rId6" display="http://www.trossenrobotics.com/robot_webcam"/>
+    <hyperlink ref="G11" r:id="rId7" display="http://www.trossenrobotics.com/store/p/6744-2s-7-4V-1300mAh-25C-LiPo-Battery.aspx"/>
+    <hyperlink ref="G12" r:id="rId8" display="http://www.trossenrobotics.com/store/p/5162-5V-1A-Switching-voltage-regulator.aspx"/>
+    <hyperlink ref="G13" r:id="rId9" display="http://www.trossenrobotics.com/barrel-jack-male-pigtail"/>
+    <hyperlink ref="G15" r:id="rId10" display="http://www.amazon.com/dp/B00137S0V0/ref=biss_dp_t_asn"/>
+    <hyperlink ref="G17" r:id="rId11" display="http://www.amazon.com/PCD-Universal-Adapter-Female-Connector/dp/B0041CFFBM/ref=pd_cp_e_3"/>
+    <hyperlink ref="G18" r:id="rId12" display="http://www.amazon.com/Sabrent-4-Port-Individual-Switches-HB-UMLS/dp/B00BWF5U0M/ref=sr_1_1?s=pc&amp;ie=UTF8&amp;qid=undefined&amp;sr=1-1&amp;keywords=usb+hub"/>
+    <hyperlink ref="G20" r:id="rId13" display="https://exadler.myshopify.com/products/dual-motor-controller-cape-dmcc-mk-6"/>
+    <hyperlink ref="G22" r:id="rId14" display="https://www.sparkfun.com/products/9276"/>
+    <hyperlink ref="G23" r:id="rId15" display="https://www.sparkfun.com/products/10441"/>
+    <hyperlink ref="G25" r:id="rId16" display="http://www.seeedstudio.com/depot/Grove-Line-Finder-p-825.html?cPath=25_31"/>
+    <hyperlink ref="G27" r:id="rId17" display="http://www.digikey.com/product-detail/en/BB-BBLK-000/BB-BBLK-000-REVC-ND/4842211"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
